--- a/backend/scripts/initialize/data/init.xlsx
+++ b/backend/scripts/initialize/data/init.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\ktianc\project\kinit\kinit-api\scripts\initialize\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linghuxj/Documents/myproject/fullstack/normal/backend/scripts/initialize/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97553F9-27BE-416E-92B2-16BBF0FD5499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C586DA87-BCC4-2345-B61F-7DDEF6C21B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="6480" windowWidth="32880" windowHeight="17460" tabRatio="887" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="3460" windowWidth="32880" windowHeight="17460" tabRatio="887" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="vadmin_auth_menu" sheetId="1" r:id="rId1"/>
-    <sheet name="vadmin_auth_role" sheetId="2" r:id="rId2"/>
-    <sheet name="vadmin_auth_user" sheetId="3" r:id="rId3"/>
-    <sheet name="vadmin_auth_user_roles" sheetId="9" r:id="rId4"/>
-    <sheet name="vadmin_system_dict_type" sheetId="5" r:id="rId5"/>
-    <sheet name="vadmin_system_dict_details" sheetId="6" r:id="rId6"/>
-    <sheet name="vadmin_system_settings_tab" sheetId="8" r:id="rId7"/>
-    <sheet name="vadmin_system_settings" sheetId="7" r:id="rId8"/>
-    <sheet name="vadmin_help_issue_category" sheetId="10" r:id="rId9"/>
-    <sheet name="vadmin_help_issue" sheetId="11" r:id="rId10"/>
+    <sheet name="auth_menu" sheetId="1" r:id="rId1"/>
+    <sheet name="auth_role" sheetId="2" r:id="rId2"/>
+    <sheet name="auth_user" sheetId="3" r:id="rId3"/>
+    <sheet name="auth_user_roles" sheetId="9" r:id="rId4"/>
+    <sheet name="system_dict_type" sheetId="5" r:id="rId5"/>
+    <sheet name="system_dict_details" sheetId="6" r:id="rId6"/>
+    <sheet name="system_settings_tab" sheetId="8" r:id="rId7"/>
+    <sheet name="system_settings" sheetId="7" r:id="rId8"/>
+    <sheet name="help_issue_category" sheetId="10" r:id="rId9"/>
+    <sheet name="help_issue" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1388,16 +1388,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="19" max="20" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="19" max="20" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -3623,20 +3623,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="52.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="52.5" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3912,12 +3912,12 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3998,18 +3998,18 @@
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="7" max="7" width="72.28515625" customWidth="1"/>
+    <col min="7" max="7" width="72.33203125" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" customWidth="1"/>
+    <col min="12" max="12" width="9.5" customWidth="1"/>
+    <col min="13" max="13" width="20.1640625" customWidth="1"/>
+    <col min="14" max="14" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4118,7 +4118,7 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -4151,14 +4151,14 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4322,13 +4322,13 @@
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -4799,15 +4799,15 @@
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5179,12 +5179,12 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="67.85546875" customWidth="1"/>
+    <col min="2" max="3" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" customWidth="1"/>
+    <col min="7" max="7" width="67.83203125" customWidth="1"/>
     <col min="8" max="8" width="98" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6165,14 +6165,14 @@
       <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="2" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
